--- a/biology/Botanique/Liste_des_espèces_végétales_endémiques_de_Suisse/Liste_des_espèces_végétales_endémiques_de_Suisse.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_endémiques_de_Suisse/Liste_des_espèces_végétales_endémiques_de_Suisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_end%C3%A9miques_de_Suisse</t>
+          <t>Liste_des_espèces_végétales_endémiques_de_Suisse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une espèce biologique est dite endémique d'une zone géographique lorsqu'elle n'existe que dans cette zone à l'état spontané.
-En Suisse, il existe un nombre restreint de vraies espèces endémiques et de nombreuses autres le sont partiellement ou le sont à des zones géographiques partagées par d'autres pays, comme les Alpes ou le massif du Jura. De ce fait, le statut d'endémique, dans ce cas, est attribué à une « espèce ou sous-espèce qui se trouve exclusivement dans une aire restreinte clairement définie » (Adrian Möhl)[1].
+En Suisse, il existe un nombre restreint de vraies espèces endémiques et de nombreuses autres le sont partiellement ou le sont à des zones géographiques partagées par d'autres pays, comme les Alpes ou le massif du Jura. De ce fait, le statut d'endémique, dans ce cas, est attribué à une « espèce ou sous-espèce qui se trouve exclusivement dans une aire restreinte clairement définie » (Adrian Möhl).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_end%C3%A9miques_de_Suisse</t>
+          <t>Liste_des_espèces_végétales_endémiques_de_Suisse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,12 @@
           <t>Endémiques[2]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Artemisia nivalis
-Pulmonaria helvetica
-Taxons souvent considérés comme endémiques
-Arenaria bernensis
-Draba ladina
-Onosma helvetica</t>
+Pulmonaria helvetica</t>
         </is>
       </c>
     </row>
@@ -529,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_end%C3%A9miques_de_Suisse</t>
+          <t>Liste_des_espèces_végétales_endémiques_de_Suisse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +554,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Endémiques[2]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Taxons souvent considérés comme endémiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Arenaria bernensis
+Draba ladina
+Onosma helvetica</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_endémiques_de_Suisse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_end%C3%A9miques_de_Suisse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxons endémiques partiel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette définition concerne les espèces dont l'aire de répartition connue est très restreinte (moins de 10 000 km2) mais qui sont également présents dans les pays limitrophes de la Suisse.
 Achillea atrata
